--- a/자유수강권/점핑클레이(수강).xlsx
+++ b/자유수강권/점핑클레이(수강).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="101">
   <si>
     <t>주야</t>
   </si>
@@ -64,6 +64,12 @@
     <t>김민성</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>이채윤</t>
+  </si>
+  <si>
     <t>2반</t>
   </si>
   <si>
@@ -160,9 +166,6 @@
     <t>권보경</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>이은빈</t>
   </si>
   <si>
@@ -187,13 +190,25 @@
     <t>2학년</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>강지석</t>
+  </si>
+  <si>
+    <t>강지연</t>
+  </si>
+  <si>
     <t>김규리</t>
   </si>
   <si>
     <t>박민서</t>
   </si>
   <si>
-    <t>1</t>
+    <t>25</t>
+  </si>
+  <si>
+    <t>홍나은</t>
   </si>
   <si>
     <t>간태영</t>
@@ -223,6 +238,12 @@
     <t>김태림</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>박예은</t>
+  </si>
+  <si>
     <t>서민경</t>
   </si>
   <si>
@@ -268,6 +289,12 @@
     <t>유소현</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>최예소</t>
+  </si>
+  <si>
     <t>백나현</t>
   </si>
   <si>
@@ -275,6 +302,9 @@
   </si>
   <si>
     <t>이보윤</t>
+  </si>
+  <si>
+    <t>최예선</t>
   </si>
   <si>
     <t>5학년</t>
@@ -655,7 +685,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -752,13 +782,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>13</v>
@@ -778,7 +808,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
@@ -804,7 +834,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>21</v>
@@ -830,7 +860,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>23</v>
@@ -856,13 +886,13 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>13</v>
@@ -882,7 +912,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>28</v>
@@ -908,7 +938,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>30</v>
@@ -934,7 +964,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>32</v>
@@ -960,13 +990,13 @@
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>13</v>
@@ -986,13 +1016,13 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>13</v>
@@ -1012,13 +1042,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>13</v>
@@ -1038,13 +1068,13 @@
         <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>13</v>
@@ -1064,13 +1094,13 @@
         <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>13</v>
@@ -1090,10 +1120,10 @@
         <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>42</v>
@@ -1116,7 +1146,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>43</v>
@@ -1142,13 +1172,13 @@
         <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>13</v>
@@ -1168,7 +1198,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>48</v>
@@ -1194,13 +1224,13 @@
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>13</v>
@@ -1220,10 +1250,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>52</v>
@@ -1246,10 +1276,10 @@
         <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>53</v>
@@ -1272,13 +1302,13 @@
         <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>13</v>
@@ -1295,16 +1325,16 @@
         <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>13</v>
@@ -1321,16 +1351,16 @@
         <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>13</v>
@@ -1347,13 +1377,13 @@
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>60</v>
@@ -1373,13 +1403,13 @@
         <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>61</v>
@@ -1399,16 +1429,16 @@
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>13</v>
@@ -1425,13 +1455,13 @@
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>64</v>
@@ -1451,13 +1481,13 @@
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>65</v>
@@ -1477,13 +1507,13 @@
         <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>66</v>
@@ -1503,10 +1533,10 @@
         <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>67</v>
@@ -1529,13 +1559,13 @@
         <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>69</v>
@@ -1555,13 +1585,13 @@
         <v>8</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>70</v>
@@ -1581,13 +1611,13 @@
         <v>8</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>71</v>
@@ -1607,16 +1637,16 @@
         <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>13</v>
@@ -1633,16 +1663,16 @@
         <v>8</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>13</v>
@@ -1659,16 +1689,16 @@
         <v>8</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>13</v>
@@ -1685,16 +1715,16 @@
         <v>8</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E40" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>13</v>
@@ -1711,13 +1741,13 @@
         <v>8</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>78</v>
@@ -1737,10 +1767,10 @@
         <v>8</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>48</v>
@@ -1763,13 +1793,13 @@
         <v>8</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>80</v>
@@ -1789,13 +1819,13 @@
         <v>8</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>81</v>
@@ -1815,16 +1845,16 @@
         <v>8</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>13</v>
@@ -1841,16 +1871,16 @@
         <v>8</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>13</v>
@@ -1867,16 +1897,16 @@
         <v>8</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>13</v>
@@ -1893,16 +1923,16 @@
         <v>8</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>13</v>
@@ -1919,13 +1949,13 @@
         <v>8</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>88</v>
@@ -1945,13 +1975,13 @@
         <v>8</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>89</v>
@@ -1971,13 +2001,13 @@
         <v>8</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>90</v>
@@ -1989,6 +2019,188 @@
         <v>13</v>
       </c>
       <c r="H51" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="13.5">
+      <c r="A52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="13.5">
+      <c r="A53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="13.5">
+      <c r="A54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="13.5">
+      <c r="A55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="13.5">
+      <c r="A56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="13.5">
+      <c r="A57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="13.5">
+      <c r="A58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>13</v>
       </c>
     </row>
